--- a/数据整理/stocks/港股/03998-波司登.xlsx
+++ b/数据整理/stocks/港股/03998-波司登.xlsx
@@ -1,165 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>010887</t>
-  </si>
-  <si>
-    <t>010888</t>
-  </si>
-  <si>
-    <t>006595</t>
-  </si>
-  <si>
-    <t>007291</t>
-  </si>
-  <si>
-    <t>004532</t>
-  </si>
-  <si>
-    <t>004533</t>
-  </si>
-  <si>
-    <t>南方消费升级混合A</t>
-  </si>
-  <si>
-    <t>南方消费升级混合C</t>
-  </si>
-  <si>
-    <t>广发港股通优质增长混合</t>
-  </si>
-  <si>
-    <t>汇丰晋信港股通双核策略混合</t>
-  </si>
-  <si>
-    <t>民生加银中证港股通高股息精选指数A</t>
-  </si>
-  <si>
-    <t>民生加银中证港股通高股息精选指数C</t>
-  </si>
-  <si>
-    <t>41.98</t>
-  </si>
-  <si>
-    <t>11.01</t>
-  </si>
-  <si>
-    <t>8.17</t>
-  </si>
-  <si>
-    <t>11.32</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>91.82</t>
-  </si>
-  <si>
-    <t>90.67</t>
-  </si>
-  <si>
-    <t>67.19</t>
-  </si>
-  <si>
-    <t>92.27</t>
-  </si>
-  <si>
-    <t>3.81</t>
-  </si>
-  <si>
-    <t>4.62</t>
-  </si>
-  <si>
-    <t>2.40</t>
-  </si>
-  <si>
-    <t>1.5994</t>
-  </si>
-  <si>
-    <t>0.4195</t>
-  </si>
-  <si>
-    <t>0.3775</t>
-  </si>
-  <si>
-    <t>0.2717</t>
-  </si>
-  <si>
-    <t>0.0122</t>
-  </si>
-  <si>
-    <t>0.0057</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -484,193 +446,531 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5994</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4195</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3775</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2717</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9761</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3467</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03998-波司登.xlsx
+++ b/数据整理/stocks/港股/03998-波司登.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03998-波司登.xlsx
+++ b/数据整理/stocks/港股/03998-波司登.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.47</v>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>155.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1140</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1029,13 +1072,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6490</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2563</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.69</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03998-波司登.xlsx
+++ b/数据整理/stocks/港股/03998-波司登.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1267,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,17 +1279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1298,14 +1319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.34</v>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>130.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2947</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1314,14 +1357,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.47</v>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1330,13 +1395,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5484</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5414</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.69</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03998-波司登.xlsx
+++ b/数据整理/stocks/港股/03998-波司登.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.65</v>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>146.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0332</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9878</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.34</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.47</v>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8786</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1631,13 +1718,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6846</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6654</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5982</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5882</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2014</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.69</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03998-波司登.xlsx
+++ b/数据整理/stocks/港股/03998-波司登.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,281 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010887</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方消费升级混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>41.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5994</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>10</v>
       </c>
+      <c r="D2" t="n">
+        <v>11.83</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010888</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方消费升级混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4195</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.65</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006595</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发港股通优质增长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.67</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3775</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.34</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007291</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇丰晋信港股通双核策略混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>67.19</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2717</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004532</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.69</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -739,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -790,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001878</t>
+          <t>008985</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实沪港深精选股票</t>
+          <t>东方红启东三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.32</t>
+          <t>146.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.18</t>
+          <t>91.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9761</t>
+          <t>7.0332</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -828,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010898</t>
+          <t>910022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河产业动力混合</t>
+          <t>东方红启航三年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>24.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>93.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3467</t>
+          <t>0.9878</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -866,36 +698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010204</t>
+          <t>001878</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银港股通优势成长股票</t>
+          <t>嘉实沪港深精选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>25.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.12</t>
+          <t>89.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1295</t>
+          <t>0.8786</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -904,36 +736,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>005644</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>广发沪港深行业龙头混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>16.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>88.65</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.6846</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -942,36 +774,226 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>010298</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>汇添富品牌驱动六个月持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>24.83</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.6654</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5982</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5882</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2014</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1046,26 +1068,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>155.97</t>
+          <t>130.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.49</t>
+          <t>90.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.1140</t>
+          <t>5.2947</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1084,26 +1106,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.47</t>
+          <t>22.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0548</t>
+          <t>0.9037</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1112,36 +1134,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010225</t>
+          <t>910028</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方红启航三年持有期混合B</t>
+          <t>东方红内需增长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.90</t>
+          <t>13.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6490</t>
+          <t>0.5484</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1150,36 +1172,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010898</t>
+          <t>010225</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河产业动力混合</t>
+          <t>东方红启航三年持有期混合B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>13.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2647</t>
+          <t>0.5414</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1188,36 +1210,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>012243</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>东方红内需增长混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2563</t>
+          <t>0.1881</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1226,36 +1248,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>010898</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>银河产业动力混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>86.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.1782</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1330,26 +1352,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>130.09</t>
+          <t>155.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.89</t>
+          <t>96.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.2947</t>
+          <t>6.1140</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1368,26 +1390,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.15</t>
+          <t>27.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9037</t>
+          <t>1.0548</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1396,36 +1418,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>910028</t>
+          <t>010225</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方红内需增长混合型证券投资基金A</t>
+          <t>东方红启航三年持有期混合B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.44</t>
+          <t>16.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5484</t>
+          <t>0.6490</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1434,36 +1456,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010225</t>
+          <t>010898</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方红启航三年持有期混合B</t>
+          <t>银河产业动力混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.27</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>94.33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5414</t>
+          <t>0.2647</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1472,36 +1494,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012243</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方红内需增长混合型证券投资基金C</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>91.03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1881</t>
+          <t>0.2563</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1510,36 +1532,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010898</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银河产业动力混合</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.07</t>
+          <t>91.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1782</t>
+          <t>0.0048</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1553,7 +1575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1574,7 +1596,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1604,36 +1626,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008985</t>
+          <t>001878</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红启东三年持有期混合</t>
+          <t>嘉实沪港深精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>146.83</t>
+          <t>32.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.38</t>
+          <t>90.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.0332</t>
+          <t>0.9761</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1642,36 +1664,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>910022</t>
+          <t>010898</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方红启航三年持有期混合A</t>
+          <t>银河产业动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.82</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9878</t>
+          <t>0.3467</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1680,36 +1702,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001878</t>
+          <t>010204</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实沪港深精选股票</t>
+          <t>中银港股通优势成长股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.72</t>
+          <t>82.12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8786</t>
+          <t>0.1295</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1718,36 +1740,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005644</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发沪港深行业龙头混合</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.30</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.65</t>
+          <t>91.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6846</t>
+          <t>0.0129</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1756,226 +1778,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010298</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富品牌驱动六个月持有期混合</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.83</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>91.64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6654</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010225</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方红启航三年持有期混合B</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>15.03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.16</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5982</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>910028</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方红内需增长混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14.78</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5882</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012243</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方红内需增长混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2014</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010204</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中银港股通优势成长股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.67</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1302</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007109</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方沪港深核心优势混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.31</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0626</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1989,112 +1821,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5994</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>11.83</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.65</v>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4195</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.34</v>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3775</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2717</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.69</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/03998-波司登.xlsx
+++ b/数据整理/stocks/港股/03998-波司登.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>11.83</v>
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>7.65</v>
+        <v>11.83</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>8.34</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.47</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.69</v>
       </c>
     </row>
@@ -566,6 +583,972 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>121.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9411</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7645</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169109</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿和三年定开混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6341</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4028</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3975</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2531</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012227</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城港股通全球竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012228</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城港股通全球竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012669</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012439</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红睿和三年定开混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012670</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -994,290 +1977,6 @@
       </c>
       <c r="H11" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008985</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红启东三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>130.09</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.2947</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>910022</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红启航三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9037</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>910028</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方红内需增长混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5484</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010225</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方红启航三年持有期混合B</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.27</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5414</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>012243</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方红内需增长混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1881</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010898</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银河产业动力混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.07</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1782</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1352,26 +2051,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>155.97</t>
+          <t>130.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.49</t>
+          <t>90.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.1140</t>
+          <t>5.2947</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1390,26 +2089,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.47</t>
+          <t>22.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0548</t>
+          <t>0.9037</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1418,36 +2117,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010225</t>
+          <t>910028</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方红启航三年持有期混合B</t>
+          <t>东方红内需增长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.90</t>
+          <t>13.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6490</t>
+          <t>0.5484</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1456,36 +2155,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010898</t>
+          <t>010225</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河产业动力混合</t>
+          <t>东方红启航三年持有期混合B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>13.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2647</t>
+          <t>0.5414</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1494,36 +2193,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>012243</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>东方红内需增长混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2563</t>
+          <t>0.1881</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1532,36 +2231,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>010898</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>银河产业动力混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>86.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.1782</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1570,6 +2269,290 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>155.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1140</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6490</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2563</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1815,7 +2798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/03998-波司登.xlsx
+++ b/数据整理/stocks/港股/03998-波司登.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>9.640000000000001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>11.83</v>
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>7.65</v>
+        <v>11.83</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>8.34</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.47</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.69</v>
       </c>
     </row>
@@ -583,6 +600,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>122.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014412</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0951</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7776</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>169109</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红睿和三年定开混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7692</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5872</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014413</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4919</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4838</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2988</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2968</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015102</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红ESG可持续投资混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012439</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红睿和三年定开混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015103</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红ESG可持续投资混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014768</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014767</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1548,7 +2305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1977,290 +2734,6 @@
       </c>
       <c r="H11" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008985</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红启东三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>130.09</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.2947</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>910022</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红启航三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9037</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>910028</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方红内需增长混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5484</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010225</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方红启航三年持有期混合B</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.27</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5414</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>012243</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方红内需增长混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1881</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010898</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银河产业动力混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.07</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1782</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2335,26 +2808,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>155.97</t>
+          <t>130.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.49</t>
+          <t>90.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.1140</t>
+          <t>5.2947</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2373,26 +2846,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.47</t>
+          <t>22.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0548</t>
+          <t>0.9037</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2401,36 +2874,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010225</t>
+          <t>910028</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方红启航三年持有期混合B</t>
+          <t>东方红内需增长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.90</t>
+          <t>13.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6490</t>
+          <t>0.5484</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2439,36 +2912,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010898</t>
+          <t>010225</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河产业动力混合</t>
+          <t>东方红启航三年持有期混合B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>13.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2647</t>
+          <t>0.5414</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2477,36 +2950,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>012243</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>东方红内需增长混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2563</t>
+          <t>0.1881</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2515,36 +2988,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>010898</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>银河产业动力混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>86.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.1782</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2553,6 +3026,290 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>155.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1140</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6490</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2563</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2798,7 +3555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
